--- a/data/evaluation/evaluation_Center_Autumn_Oranges.xlsx
+++ b/data/evaluation/evaluation_Center_Autumn_Oranges.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2254.36876265149</v>
+        <v>2225.694112554113</v>
       </c>
       <c r="C4" t="n">
-        <v>10147538.71395849</v>
+        <v>10069747.86997412</v>
       </c>
       <c r="D4" t="n">
-        <v>3185.520163797192</v>
+        <v>3173.286603818528</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3972621685284194</v>
+        <v>0.4018827455898289</v>
       </c>
     </row>
     <row r="5">
